--- a/example/Template_UserOptions.xlsx
+++ b/example/Template_UserOptions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-38505" yWindow="-7395" windowWidth="38625" windowHeight="21225" activeTab="2"/>
+    <workbookView xWindow="-38505" yWindow="-7395" windowWidth="38625" windowHeight="21225"/>
   </bookViews>
   <sheets>
     <sheet name="Comparisons" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>MainComparison</t>
   </si>
@@ -151,13 +151,136 @@
   </si>
   <si>
     <t>Feature</t>
+  </si>
+  <si>
+    <t>tumor_differentiation</t>
+  </si>
+  <si>
+    <t>neo!=neo;PDAC==Yes</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>save_table</t>
+  </si>
+  <si>
+    <t>n_custom_quantiles</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>RdBu</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>wilcox</t>
+  </si>
+  <si>
+    <t>spearman</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Stain</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>Case_ID</t>
+  </si>
+  <si>
+    <t>do_paired_analysis</t>
+  </si>
+  <si>
+    <t>tumor_differentiation-poor</t>
+  </si>
+  <si>
+    <t>#210c4aff</t>
+  </si>
+  <si>
+    <t>#f5e942ff</t>
+  </si>
+  <si>
+    <t>tumor_differentiation-well</t>
+  </si>
+  <si>
+    <t>#bb3754ff</t>
+  </si>
+  <si>
+    <t>TCell</t>
+  </si>
+  <si>
+    <t>CD3,CD8</t>
+  </si>
+  <si>
+    <t>BCell</t>
+  </si>
+  <si>
+    <t>CD20, CD27, CD5, PDL1</t>
+  </si>
+  <si>
+    <t>immune</t>
+  </si>
+  <si>
+    <t>TCell, BCell</t>
+  </si>
+  <si>
+    <t>DELETE TEXT IN RED (just an example)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE TEXT IN RED ( just an example) </t>
+  </si>
+  <si>
+    <t>CD20</t>
+  </si>
+  <si>
+    <t>Num.Pos.per.mm.2</t>
+  </si>
+  <si>
+    <t>Pos.Pixel.Percent</t>
+  </si>
+  <si>
+    <t>CD27</t>
+  </si>
+  <si>
+    <t>CD5</t>
+  </si>
+  <si>
+    <t>PDL1</t>
+  </si>
+  <si>
+    <t>Sex;Smoker</t>
+  </si>
+  <si>
+    <t>Data\values.csv</t>
+  </si>
+  <si>
+    <t>Data\rowAnn.csv</t>
+  </si>
+  <si>
+    <t>Data\colAnn.csv</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Discrete.Score</t>
+  </si>
+  <si>
+    <t>tumor_differentiation-moderate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,35 +310,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -267,20 +396,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,33 +453,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,378 +801,476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="40.85546875" customWidth="1"/>
     <col min="3" max="6" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="B28" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="B29" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="B30" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B31" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B37" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
+      <c r="B39" s="35" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F35">
@@ -1001,24 +1285,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="31" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="28" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1028,33 +1343,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="C2" s="12"/>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="23"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="23" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1064,29 +1411,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/example/Template_UserOptions.xlsx
+++ b/example/Template_UserOptions.xlsx
@@ -120,9 +120,6 @@
     <t>dataset_name</t>
   </si>
   <si>
-    <t>paired_id_column</t>
-  </si>
-  <si>
     <t>color_gradient</t>
   </si>
   <si>
@@ -240,12 +237,6 @@
     <t>CD20</t>
   </si>
   <si>
-    <t>Num.Pos.per.mm.2</t>
-  </si>
-  <si>
-    <t>Pos.Pixel.Percent</t>
-  </si>
-  <si>
     <t>CD27</t>
   </si>
   <si>
@@ -274,6 +265,15 @@
   </si>
   <si>
     <t>tumor_differentiation-moderate</t>
+  </si>
+  <si>
+    <t>patient_id_column</t>
+  </si>
+  <si>
+    <t>Num_Pos_per_mm_2</t>
+  </si>
+  <si>
+    <t>Pos_Pixel_Percent</t>
   </si>
 </sst>
 </file>
@@ -803,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -848,10 +848,10 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -863,7 +863,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -872,10 +872,10 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -884,10 +884,10 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -896,10 +896,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -912,10 +912,10 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -928,10 +928,10 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -947,7 +947,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -959,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -971,7 +971,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -992,7 +992,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="18" t="b">
         <v>1</v>
@@ -1139,7 +1139,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1151,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1163,7 +1163,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1175,7 +1175,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1187,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1199,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1211,7 +1211,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1252,15 +1252,15 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="18" t="b">
         <v>1</v>
@@ -1269,7 +1269,7 @@
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="34"/>
       <c r="B39" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1308,32 +1308,32 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>61</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1358,10 +1358,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>15</v>
@@ -1369,35 +1369,35 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>64</v>
       </c>
       <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>66</v>
       </c>
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>68</v>
       </c>
       <c r="C5" s="23" t="b">
         <v>1</v>
@@ -1427,7 +1427,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>16</v>
@@ -1438,53 +1438,53 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/example/Template_UserOptions.xlsx
+++ b/example/Template_UserOptions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>MainComparison</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>Pos_Pixel_Percent</t>
+  </si>
+  <si>
+    <t>feature_plots</t>
+  </si>
+  <si>
+    <t>boxplot_log10y</t>
   </si>
 </sst>
 </file>
@@ -801,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,10 +934,10 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>48</v>
+        <v>85</v>
+      </c>
+      <c r="B10" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -944,22 +950,26 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -968,10 +978,10 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -980,10 +990,10 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="18" t="b">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -992,19 +1002,19 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B15" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B16" s="18" t="b">
         <v>1</v>
@@ -1016,34 +1026,34 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B17" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B19" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1052,7 +1062,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="B20" s="18" t="b">
         <v>1</v>
@@ -1064,7 +1074,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="18" t="b">
         <v>1</v>
@@ -1076,7 +1086,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="18" t="b">
         <v>1</v>
@@ -1088,7 +1098,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" s="18" t="b">
         <v>1</v>
@@ -1100,7 +1110,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" s="18" t="b">
         <v>1</v>
@@ -1112,7 +1122,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B25" s="18" t="b">
         <v>1</v>
@@ -1124,7 +1134,7 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B26" s="18" t="b">
         <v>1</v>
@@ -1136,10 +1146,10 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="B27" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1148,10 +1158,10 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>75</v>
+        <v>29</v>
+      </c>
+      <c r="B28" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1160,10 +1170,10 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1172,34 +1182,34 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1208,10 +1218,10 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1220,10 +1230,10 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1232,10 +1242,10 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1244,36 +1254,60 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="18">
-        <v>5</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B39" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="18" t="b">
+      <c r="B40" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35" t="s">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
+      <c r="B41" s="35" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F35">
+  <conditionalFormatting sqref="A1:F37">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
